--- a/RU000A0ZZ885.xlsx
+++ b/RU000A0ZZ885.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.48 seconds</t>
+          <t>2.52 seconds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.407 seconds</t>
+          <t>0.440 seconds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.023 seconds</t>
+          <t>0.035 seconds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.039 seconds</t>
+          <t>0.042 seconds</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/RU000A0ZZ885.xlsx
+++ b/RU000A0ZZ885.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="security_search" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="security_info" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bond_market_data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="performance_metrics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="security_search_securities" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="security_info_description" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="security_info_boards" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bond_market_data_dataversion" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="performance_metrics" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,25 +430,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="21" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>raw_data</t>
+          <t>secid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shortname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>regnumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>isin</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_traded</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>emitent_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>emitent_title</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>emitent_inn</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>emitent_okpo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>primary_boardid</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>marketprice_boardid</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"securities": {"metadata": {"secid": {"type": "string", "bytes": 51, "max_size": 0}, "shortname": {"type": "string", "bytes": 189, "max_size": 0}, "regnumber": {"type": "string", "bytes": 189, "max_size": 0}, "name": {"type": "string", "bytes": 765, "max_size": 0}, "isin": {"type": "string", "bytes": 51, "max_size": 0}, "is_traded": {"type": "int32"}, "emitent_id": {"type": "int32"}, "emitent_title": {"type": "string", "bytes": 765, "max_size": 0}, "emitent_inn": {"type": "string", "bytes": 30, "max_size": 0}, "emitent_okpo": {"type": "string", "bytes": 24, "max_size": 0}, "type": {"type": "string", "bytes": 93, "max_size": 0}, "group": {"type": "string", "bytes": 93, "max_size": 0}, "primary_boardid": {"type": "string", "bytes": 12, "max_size": 0}, "marketprice_boardid": {"type": "string", "bytes": 12, "max_size": 0}}, "columns": ["secid", "shortname", "regnumber", "name", "isin", "is_traded", "emitent_id", "emitent_title", "emitent_inn", "emitent_okpo", "type", "group", "primary_boardid", "marketprice_boardid"], "data": [["RU000A0ZZ885", "КАМАЗ БО-9", "4-09-55010-D", "КАМАЗ ПАО об. БО-09", "RU000A0ZZ885", 1, 855, "Публичное акционерное общество \"КАМАЗ\"", "1650032058", "00231515", "corporate_bond", "stock_bonds", "TQCB", "TQCB"]]}}</t>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KAMAZ PTC BO-09</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4-09-55010-D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KAMAZ PTC BO-09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>855</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KAMAZ Publicly Traded Company</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1650032058</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00231515</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>corporate_bond</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>stock_bonds</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>TQCB</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>TQCB</t>
         </is>
       </c>
     </row>
@@ -462,27 +605,1164 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>raw_data</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sort_order</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>is_hidden</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"description": {"metadata": {"name": {"type": "string", "bytes": 189, "max_size": 0}, "title": {"type": "string", "bytes": 765, "max_size": 0}, "value": {"type": "string", "bytes": 6144, "max_size": 0}, "type": {"type": "string", "bytes": 21, "max_size": 0}, "sort_order": {"type": "int64"}, "is_hidden": {"type": "int64"}, "precision": {"type": "int64"}}, "columns": ["name", "title", "value", "type", "sort_order", "is_hidden", "precision"], "data": [["SECID", "Код ценной бумаги", "RU000A0ZZ885", "string", 1, 0, null], ["ISSUENAME", "Наименование ценной бумаги", "Облигации процентные неконвертируемые документарные на предъявителя с обязательным централизованным хранением серии БО-09", "string", 2, 0, null], ["NAME", "Полное наименование", "КАМАЗ ПАО об. БО-09", "string", 3, 0, null], ["SHORTNAME", "Краткое наименование", "КАМАЗ БО-9", "string", 4, 0, null], ["REGNUMBER", "Номер государственной регистрации", "4-09-55010-D", "string", 5, 0, null], ["ISIN", "ISIN код", "RU000A0ZZ885", "string", 6, 0, null], ["ISSUEDATE", "Дата начала торгов", "2018-05-29", "date", 7, 0, null], ["MATDATE", "Дата погашения", "2033-05-10", "date", 8, 0, null], ["INITIALFACEVALUE", "Первоначальная номинальная стоимость", "1000", "number", 10, 0, 2], ["FACEUNIT", "Валюта номинала", "SUR", "string", 11, 0, null], ["LATNAME", "Английское наименование", "KAMAZ PTC BO-09", "string", 12, 1, null], ["STARTDATEMOEX", "Дата начала торгов на Московской Бирже", "2018-05-29", "date", 13, 0, null], ["HASPROSPECTUS", "Наличие проспекта", "1", "boolean", 14, 1, 0], ["DECISIONDATE", "Дата принятия решения организатором торговли о включении ценной бумаги в Список", "2016-12-05", "date", 15, 1, null], ["ISCONCESSIONAGREEMENT", "Облигации размещены с целью финансирования соглашений о партнерстве", "0", "boolean", 16, 1, 0], ["HASDEFAULT", "Допущен дефолт", "0", "boolean", 17, 1, 0], ["HASTECHNICALDEFAULT", "Допущен технический дефолт", "0", "boolean", 18, 1, 0], ["EMITENTMISMATCHCUR", "Эмитент не соответствует требованию на текущий Список", "0", "number", 21, 1, 0], ["EARLYREPAYMENT", "Возможен досрочный выкуп", "0", "boolean", 22, 1, 0], ["LISTLEVEL", "Уровень листинга", "2", "number", 23, 0, 0], ["DAYSTOREDEMPTION", "Дней до погашения", "2649", "number", 25, 0, 0], ["ISSUESIZE", "Объем выпуска", "3000000", "number", 26, 0, 0], ["FACEVALUE", "Номинальная стоимость", "1000", "number", 27, 0, 2], ["ISQUALIFIEDINVESTORS", "Бумаги для квалифицированных инвесторов", "0", "boolean", 28, 0, 0], ["COUPONFREQUENCY", "Периодичность выплаты купона в год", "2", "number", 30, 0, 0], ["COUPONDATE", "Дата выплаты купона", "2026-05-19", "date", 31, 0, null], ["COUPONPERCENT", "Ставка купона, %", "15.43", "number", 32, 0, 2], ["COUPONVALUE", "Сумма купона, в валюте номинала", "76.94", "number", 33, 0, 2], ["EVENINGSESSION", "Допуск к вечерней дополнительной торговой сессии", "1", "boolean", 37, 0, 0], ["REGISTRY_DATE", "Дата государственной регистрации ценной бумаги", "2015-06-04", "date", 41, 0, null], ["BOND_TYPE", "Вид облигации", "Флоатер", "string", 42, 1, null], ["BOND_SUBTYPE", "Подвид облигации", "До погашения", "string", 43, 1, null], ["TYPENAME", "Вид/категория ценной бумаги", "Корпоративная облигация", "string", 9000, 0, null], ["GROUP", "Код типа инструмента", "stock_bonds", "string", 9001, 1, null], ["TYPE", "Тип бумаги", "corporate_bond", "string", 10000, 1, null], ["GROUPNAME", "Типа инструмента", "Облигации", "string", 10011, 1, null], ["EMITTER_ID", "Код эмитента", "855", "number", 11000, 1, null]]}, "boards": {"metadata": {"secid": {"type": "string", "bytes": 51, "max_size": 0}, "boardid": {"type": "string", "bytes": 12, "max_size": 0}, "title": {"type": "string", "bytes": 381, "max_size": 0}, "board_group_id": {"type": "int32"}, "market_id": {"type": "int32"}, "market": {"type": "string", "bytes": 45, "max_size": 0}, "engine_id": {"type": "int32"}, "engine": {"type": "string", "bytes": 45, "max_size": 0}, "is_traded": {"type": "int32"}, "decimals": {"type": "int32"}, "history_from": {"type": "date", "bytes": 10, "max_size": 0}, "history_till": {"type": "date", "bytes": 10, "max_size": 0}, "listed_from": {"type": "date", "bytes": 10, "max_size": 0}, "listed_till": {"type": "date", "bytes": 10, "max_size": 0}, "is_primary": {"type": "int32"}, "currencyid": {"type": "string", "bytes": 9, "max_size": 0}, "unit": {"type": "string", "bytes": 3, "max_size": 0}}, "columns": ["secid", "boardid", "title", "board_group_id", "market_id", "market", "engine_id", "engine", "is_traded", "decimals", "history_from", "history_till", "listed_from", "listed_till", "is_primary", "currencyid", "unit"], "data": [["RU000A0ZZ885", "TQCB", "Т+: Облигации - безадрес.", 58, 2, "bonds", 1, "stock", 1, 2, "2020-05-25", "2026-02-06", "2020-05-25", "2026-02-07", 1, "RUB", "%"], ["RU000A0ZZ885", "EQOB", "Т0 Облигации - безадрес.", 7, 2, "bonds", 1, "stock", 0, 2, "2018-05-29", "2020-05-22", "2018-05-29", "2020-05-22", 0, "RUB", "%"], ["RU000A0ZZ885", "LIQB", "Продажа обеспечения бирж.рынок - безадрес.", 120, 36, "mamc", 1, "stock", 1, 2, null, null, "2018-12-07", "2026-02-07", 0, null, "%"], ["RU000A0ZZ885", "RPEY", "РЕПО в ин.валюте (CNY) - адрес.", 2, 3, "repo", 1, "stock", 1, 6, null, null, "2022-09-26", "2026-02-07", 0, "CNY", "%"], ["RU000A0ZZ885", "RPEU", "РЕПО в ин. валюте (USD) - адрес.", 94, 3, "repo", 1, "stock", 1, 6, null, null, "2019-04-22", "2026-02-07", 0, "USD", "%"], ["RU000A0ZZ885", "RPUO", "РЕПО c облигациями (USD) - адрес.", 94, 3, "repo", 1, "stock", 0, 6, null, null, "2018-05-29", "2019-05-31", 0, "USD", "%"], ["RU000A0ZZ885", "RPEO", "РЕПО в ин. валюте (EUR) - адрес.", 90, 3, "repo", 1, "stock", 1, 6, null, null, "2019-04-22", "2026-02-07", 0, "EUR", "%"], ["RU000A0ZZ885", "EQRP", "РЕПО с ЦК 1 день - безадрес.", 50, 27, "ccp", 1, "stock", 1, 4, "2019-12-11", "2023-09-19", "2018-12-07", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "EQRD", "РЕПО с ЦК 1 день (USD) - безадрес.", 92, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "USD", "%"], ["RU000A0ZZ885", "EQRE", "РЕПО с ЦК 1 день (EUR) - безадрес.", 93, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "EUR", "%"], ["RU000A0ZZ885", "EQRY", "РЕПО с ЦК 1 день (CNY) - безадрес.", 152, 27, "ccp", 1, "stock", 1, 4, null, null, "2019-03-07", "2026-02-07", 0, "CNY", "%"], ["RU000A0ZZ885", "EQWP", "РЕПО с ЦК 7 дн. - безадрес.", 76, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "EQWD", "РЕПО с ЦК 7 дней (USD) - безадрес.", 78, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "USD", "%"], ["RU000A0ZZ885", "EQWE", "РЕПО с ЦК 7 дней (EUR) - безадрес.", 79, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "EUR", "%"], ["RU000A0ZZ885", "EQWY", "РЕПО с ЦК 7 дней (CNY) - безадрес.", 1116, 27, "ccp", 1, "stock", 1, 4, null, null, "2022-09-26", "2026-02-07", 0, "CNY", "%"], ["RU000A0ZZ885", "LIQR", "РЕПО с ЦК: Урегулирование - безадрес.", 148, 27, "ccp", 1, "stock", 1, 4, null, null, "2019-03-04", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "PSRP", "РЕПО с ЦК - адрес.", 65, 27, "ccp", 1, "stock", 1, 4, "2019-10-02", "2020-04-17", "2018-12-07", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "PSRD", "РЕПО с ЦК (USD) - адрес.", 91, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "USD", "%"], ["RU000A0ZZ885", "PSRE", "РЕПО с ЦК (EUR) - адрес.", 96, 27, "ccp", 1, "stock", 1, 4, null, null, "2018-12-07", "2026-02-07", 0, "EUR", "%"], ["RU000A0ZZ885", "PSRY", "РЕПО с ЦК (CNY) - адрес.", 153, 27, "ccp", 1, "stock", 1, 4, null, null, "2019-03-07", "2026-02-07", 0, "CNY", "%"], ["RU000A0ZZ885", "PSRK", "РЕПО с ЦК (KZT) - адрес.", 1422, 27, "ccp", 1, "stock", 1, 4, null, null, "2025-06-23", "2026-02-07", 0, "KZT", "%"], ["RU000A0ZZ885", "PSRB", "РЕПО с ЦК (BYN) - адрес.", 1424, 27, "ccp", 1, "stock", 1, 4, null, null, "2025-06-23", "2026-02-07", 0, "BYN", "%"], ["RU000A0ZZ885", "PSOB", "РПС: Облигации - адрес.", 284, 4, "ndm", 1, "stock", 1, 2, "2018-05-29", "2025-12-30", "2018-05-29", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "PSAU", "Размещение - адрес.", 107, 4, "ndm", 1, "stock", 0, 2, "2018-05-29", "2018-05-29", "2018-05-29", "2018-05-29", 0, "RUB", "%"], ["RU000A0ZZ885", "OTCB", "Анонимный РПС - адрес.", 126, 4, "ndm", 1, "stock", 0, 2, null, null, "2018-10-29", "2022-12-30", 0, "RUB", "%"], ["RU000A0ZZ885", "PTOB", "РПС с ЦК: Облигации - адрес.", 282, 4, "ndm", 1, "stock", 1, 2, "2019-03-11", "2024-03-15", "2018-12-07", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "OCBR", "OTC: Облигации с ЦК - двусторонние", 1017, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2022-04-25", "2026-02-06", 0, "RUB", "%"], ["RU000A0ZZ885", "OCBU", "OTC: Облигации с ЦК (USD) - двусторонние", 1019, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2022-04-25", "2026-02-06", 0, "USD", "%"], ["RU000A0ZZ885", "OCBY", "OTC: Облигации с ЦК (CNY) - двусторонние", 1204, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2022-12-05", "2026-02-06", 0, "CNY", "%"], ["RU000A0ZZ885", "OCAR", "OTC: Облигации с ЦК адрес. - двусторонние", 1263, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2023-04-10", "2026-02-06", 0, "RUB", "%"], ["RU000A0ZZ885", "OCAY", "OTC: Облигации с ЦК адрес. (CNY) - двусторонние", 1265, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2023-04-10", "2026-02-06", 0, "CNY", "%"], ["RU000A0ZZ885", "OCAU", "OTC: Облигации с ЦК адрес. (USD) - двусторонние", 1267, 1014, "ndm", 1012, "otc", 1, 4, null, null, "2023-04-10", "2026-02-06", 0, "USD", "%"], ["RU000A0ZZ885", "RPMO", "РЕПО-М - адрес.", 201, 3, "repo", 1, "stock", 1, 4, "2018-05-29", "2020-02-06", "2018-05-29", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "RPEK", "РЕПО-М в ин. валюте: (KZT) - адрес.", 1426, 3, "repo", 1, "stock", 1, 6, null, null, "2025-06-23", "2026-02-07", 0, "KZT", "%"], ["RU000A0ZZ885", "RPEB", "РЕПО-М в ин. валюте: (BYN) - адрес.", 1428, 3, "repo", 1, "stock", 1, 6, null, null, "2025-06-23", "2026-02-07", 0, "BYN", "%"], ["RU000A0ZZ885", "CIQR", "Урегулирование РЕПО с ЦК Нерезиденты - безадрес.", 1080, 1019, "nonresccp", 1, "stock", 1, 4, null, null, "2022-06-27", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "CIQB", "Урегулирование с ЦК Нерезиденты - безадрес.", 1082, 36, "mamc", 1, "stock", 1, 2, null, null, "2022-06-27", "2026-02-07", 0, null, "%"], ["RU000A0ZZ885", "CTOB", "РПС с ЦК Нерезиденты: Облигации - адрес.", 1062, 1015, "nonresndm", 1, "stock", 1, 2, null, null, "2022-06-27", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "CPMO", "РЕПО-M Нерезиденты - адрес.", 1071, 1017, "nonresrepo", 1, "stock", 1, 4, null, null, "2022-06-27", "2026-02-07", 0, "RUB", "%"], ["RU000A0ZZ885", "CPEU", "РЕПО-M Нерезиденты (USD) - адрес.", 1073, 1017, "nonresrepo", 1, "stock", 1, 6, null, null, "2022-06-27", "2026-02-07", 0, "USD", "%"], ["RU000A0ZZ885", "CPEO", "РЕПО-M Нерезиденты (EUR) - адрес.", 1075, 1017, "nonresrepo", 1, "stock", 1, 6, null, null, "2022-06-27", "2026-02-07", 0, "EUR", "%"], ["RU000A0ZZ885", "CPEY", "РЕПО-M Нерезиденты (CNY) - адрес.", 1077, 1017, "nonresrepo", 1, "stock", 1, 6, null, null, "2022-09-26", "2026-02-07", 0, "CNY", "%"], ["RU000A0ZZ885", "OBBO", "ОТС-система: облигации", 141, 39, "bonds", 7, "offboard", 0, 2, "2018-11-08", "2020-02-10", "2018-11-08", "2022-12-30", 0, null, "%"], ["RU000A0ZZ885", "QBND", "Квоты", 1280, 1279, "bonds", 1282, "quotes", 1, 4, null, null, "2023-06-05", "2026-02-06", 0, null, "%"]]}}</t>
-        </is>
-      </c>
+          <t>SECID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Security code</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ISSUENAME</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Security name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Облигации процентные неконвертируемые документарные на предъявителя с обязательным централизованным хранением серии БО-09</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KAMAZ PTC BO-09</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SHORTNAME</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Short name</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KAMAZ PTC BO-09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REGNUMBER</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>State registration  number</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4-09-55010-D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ISIN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ISIN Code</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ISSUEDATE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Date of listing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MATDATE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maturity date</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2033-05-10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INITIALFACEVALUE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Initial face value</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FACEUNIT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Face value currency</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LATNAME</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Full name in English</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KAMAZ PTC BO-09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>STARTDATEMOEX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Trading start date on Moscow Exchange</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HASPROSPECTUS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Has prospectus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DECISIONDATE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Date of listing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2016-12-05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ISCONCESSIONAGREEMENT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The bonds were placed to fund partnership agreements</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HASDEFAULT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Defaulted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HASTECHNICALDEFAULT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Technically defaulted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EMITENTMISMATCHCUR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>The Issuer is not eligible for the current List</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EARLYREPAYMENT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Option for early redemption</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LISTLEVEL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>List level</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>23</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DAYSTOREDEMPTION</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Days to redemption</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2649</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ISSUESIZE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Issue Size</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FACEVALUE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Face value</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ISQUALIFIEDINVESTORS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Qualified investors</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COUPONFREQUENCY</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Coupon payment interval in year</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>30</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>COUPONDATE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Coupon date</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-05-19</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>COUPONPERCENT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Coupon rate, %</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>32</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>COUPONVALUE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Coupon value, in face value currency</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>76.94</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>33</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EVENINGSESSION</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Admission to the evening additional trading session</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>37</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>REGISTRY_DATE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Date of state registration of the security</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2015-06-04</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BOND_TYPE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bond type</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Floater</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>42</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BOND_SUBTYPE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bond sub-type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Till maturity</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>43</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TYPENAME</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Security type</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bond</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GROUP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instrument type code</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>stock_bonds</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TYPE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Security type</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>corporate_bond</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GROUPNAME</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instrument type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bonds</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>10011</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EMITTER_ID</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Emitter code</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -495,25 +1775,3121 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>raw_data</t>
+          <t>secid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>boardid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>board_group_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>market_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>engine_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>engine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>is_traded</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>decimals</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>history_from</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>history_till</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>listed_from</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>listed_till</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>is_primary</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>currencyid</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"securities": {"metadata": {"SECID": {"type": "string", "bytes": 36, "max_size": 0}, "BOARDID": {"type": "string", "bytes": 12, "max_size": 0}, "SHORTNAME": {"type": "string", "bytes": 30, "max_size": 0}, "PREVWAPRICE": {"type": "double"}, "YIELDATPREVWAPRICE": {"type": "double"}, "COUPONVALUE": {"type": "double"}, "NEXTCOUPON": {"type": "date", "bytes": 10, "max_size": 0}, "ACCRUEDINT": {"type": "double"}, "PREVPRICE": {"type": "double"}, "LOTSIZE": {"type": "int32"}, "FACEVALUE": {"type": "double"}, "BOARDNAME": {"type": "string", "bytes": 381, "max_size": 0}, "STATUS": {"type": "string", "bytes": 3, "max_size": 0}, "MATDATE": {"type": "date", "bytes": 10, "max_size": 0}, "DECIMALS": {"type": "int32"}, "COUPONPERIOD": {"type": "int32"}, "ISSUESIZE": {"type": "int64"}, "PREVLEGALCLOSEPRICE": {"type": "double"}, "PREVDATE": {"type": "date", "bytes": 10, "max_size": 0}, "SECNAME": {"type": "string", "bytes": 90, "max_size": 0}, "REMARKS": {"type": "string", "bytes": 24, "max_size": 0}, "MARKETCODE": {"type": "string", "bytes": 12, "max_size": 0}, "INSTRID": {"type": "string", "bytes": 12, "max_size": 0}, "SECTORID": {"type": "string", "bytes": 12, "max_size": 0}, "MINSTEP": {"type": "double"}, "FACEUNIT": {"type": "string", "bytes": 12, "max_size": 0}, "BUYBACKPRICE": {"type": "double"}, "BUYBACKDATE": {"type": "date", "bytes": 10, "max_size": 0}, "ISIN": {"type": "string", "bytes": 36, "max_size": 0}, "LATNAME": {"type": "string", "bytes": 90, "max_size": 0}, "REGNUMBER": {"type": "string", "bytes": 90, "max_size": 0}, "CURRENCYID": {"type": "string", "bytes": 12, "max_size": 0}, "ISSUESIZEPLACED": {"type": "int64"}, "LISTLEVEL": {"type": "int32"}, "SECTYPE": {"type": "string", "bytes": 3, "max_size": 0}, "COUPONPERCENT": {"type": "double"}, "OFFERDATE": {"type": "date", "bytes": 10, "max_size": 0}, "SETTLEDATE": {"type": "date", "bytes": 10, "max_size": 0}, "LOTVALUE": {"type": "double"}, "FACEVALUEONSETTLEDATE": {"type": "double"}, "CALLOPTIONDATE": {"type": "date", "bytes": 10, "max_size": 0}, "PUTOPTIONDATE": {"type": "date", "bytes": 10, "max_size": 0}, "DATEYIELDFROMISSUER": {"type": "date", "bytes": 10, "max_size": 0}, "BONDTYPE": {"type": "string", "bytes": 96, "max_size": 0}, "BONDSUBTYPE": {"type": "string", "bytes": 96, "max_size": 0}}, "columns": ["SECID", "BOARDID", "SHORTNAME", "PREVWAPRICE", "YIELDATPREVWAPRICE", "COUPONVALUE", "NEXTCOUPON", "ACCRUEDINT", "PREVPRICE", "LOTSIZE", "FACEVALUE", "BOARDNAME", "STATUS", "MATDATE", "DECIMALS", "COUPONPERIOD", "ISSUESIZE", "PREVLEGALCLOSEPRICE", "PREVDATE", "SECNAME", "REMARKS", "MARKETCODE", "INSTRID", "SECTORID", "MINSTEP", "FACEUNIT", "BUYBACKPRICE", "BUYBACKDATE", "ISIN", "LATNAME", "REGNUMBER", "CURRENCYID", "ISSUESIZEPLACED", "LISTLEVEL", "SECTYPE", "COUPONPERCENT", "OFFERDATE", "SETTLEDATE", "LOTVALUE", "FACEVALUEONSETTLEDATE", "CALLOPTIONDATE", "PUTOPTIONDATE", "DATEYIELDFROMISSUER", "BONDTYPE", "BONDSUBTYPE"], "data": []}, "marketdata": {"metadata": {"SECID": {"type": "string", "bytes": 36, "max_size": 0}, "BID": {"type": "double"}, "BIDDEPTH": {"type": "undefined", "bytes": 0, "max_size": 0}, "OFFER": {"type": "double"}, "OFFERDEPTH": {"type": "undefined", "bytes": 0, "max_size": 0}, "SPREAD": {"type": "double"}, "BIDDEPTHT": {"type": "int64"}, "OFFERDEPTHT": {"type": "int64"}, "OPEN": {"type": "double"}, "LOW": {"type": "double"}, "HIGH": {"type": "double"}, "LAST": {"type": "double"}, "LASTCHANGE": {"type": "double"}, "LASTCHANGEPRCNT": {"type": "double"}, "QTY": {"type": "int32"}, "VALUE": {"type": "double"}, "YIELD": {"type": "double"}, "VALUE_USD": {"type": "double"}, "WAPRICE": {"type": "double"}, "LASTCNGTOLASTWAPRICE": {"type": "double"}, "WAPTOPREVWAPRICEPRCNT": {"type": "double"}, "WAPTOPREVWAPRICE": {"type": "double"}, "YIELDATWAPRICE": {"type": "double"}, "YIELDTOPREVYIELD": {"type": "double"}, "CLOSEYIELD": {"type": "double"}, "CLOSEPRICE": {"type": "double"}, "MARKETPRICETODAY": {"type": "double"}, "MARKETPRICE": {"type": "double"}, "LASTTOPREVPRICE": {"type": "double"}, "NUMTRADES": {"type": "int32"}, "VOLTODAY": {"type": "int64"}, "VALTODAY": {"type": "int64"}, "VALTODAY_USD": {"type": "int64"}, "BOARDID": {"type": "string", "bytes": 12, "max_size": 0}, "TRADINGSTATUS": {"type": "string", "bytes": 3, "max_size": 0}, "UPDATETIME": {"type": "time", "bytes": 10, "max_size": 0}, "DURATION": {"type": "double"}, "NUMBIDS": {"type": "undefined", "bytes": 0, "max_size": 0}, "NUMOFFERS": {"type": "undefined", "bytes": 0, "max_size": 0}, "CHANGE": {"type": "double"}, "TIME": {"type": "time", "bytes": 10, "max_size": 0}, "HIGHBID": {"type": "undefined", "bytes": 0, "max_size": 0}, "LOWOFFER": {"type": "undefined", "bytes": 0, "max_size": 0}, "PRICEMINUSPREVWAPRICE": {"type": "double"}, "LASTBID": {"type": "undefined", "bytes": 0, "max_size": 0}, "LASTOFFER": {"type": "undefined", "bytes": 0, "max_size": 0}, "LCURRENTPRICE": {"type": "double"}, "LCLOSEPRICE": {"type": "double"}, "MARKETPRICE2": {"type": "double"}, "OPENPERIODPRICE": {"type": "double"}, "SEQNUM": {"type": "int64"}, "SYSTIME": {"type": "datetime", "bytes": 19, "max_size": 0}, "VALTODAY_RUR": {"type": "int64"}, "IRICPICLOSE": {"type": "double"}, "BEICLOSE": {"type": "double"}, "CBRCLOSE": {"type": "double"}, "YIELDTOOFFER": {"type": "double"}, "YIELDLASTCOUPON": {"type": "double"}, "TRADINGSESSION": {"type": "string", "bytes": 3, "max_size": 0}, "CALLOPTIONYIELD": {"type": "double"}, "CALLOPTIONDURATION": {"type": "double"}, "ZSPREAD": {"type": "double"}, "ZSPREADATWAPRICE": {"type": "double"}}, "columns": ["SECID", "BID", "BIDDEPTH", "OFFER", "OFFERDEPTH", "SPREAD", "BIDDEPTHT", "OFFERDEPTHT", "OPEN", "LOW", "HIGH", "LAST", "LASTCHANGE", "LASTCHANGEPRCNT", "QTY", "VALUE", "YIELD", "VALUE_USD", "WAPRICE", "LASTCNGTOLASTWAPRICE", "WAPTOPREVWAPRICEPRCNT", "WAPTOPREVWAPRICE", "YIELDATWAPRICE", "YIELDTOPREVYIELD", "CLOSEYIELD", "CLOSEPRICE", "MARKETPRICETODAY", "MARKETPRICE", "LASTTOPREVPRICE", "NUMTRADES", "VOLTODAY", "VALTODAY", "VALTODAY_USD", "BOARDID", "TRADINGSTATUS", "UPDATETIME", "DURATION", "NUMBIDS", "NUMOFFERS", "CHANGE", "TIME", "HIGHBID", "LOWOFFER", "PRICEMINUSPREVWAPRICE", "LASTBID", "LASTOFFER", "LCURRENTPRICE", "LCLOSEPRICE", "MARKETPRICE2", "OPENPERIODPRICE", "SEQNUM", "SYSTIME", "VALTODAY_RUR", "IRICPICLOSE", "BEICLOSE", "CBRCLOSE", "YIELDTOOFFER", "YIELDLASTCOUPON", "TRADINGSESSION", "CALLOPTIONYIELD", "CALLOPTIONDURATION", "ZSPREAD", "ZSPREADATWAPRICE"], "data": []}, "dataversion": {"metadata": {"data_version": {"type": "int32"}, "seqnum": {"type": "int64"}, "trade_date": {"type": "date", "bytes": 10, "max_size": 0}, "trade_session_date": {"type": "date", "bytes": 10, "max_size": 0}}, "columns": ["data_version", "seqnum", "trade_date", "trade_session_date"], "data": [[8716, 20260207064330, "2026-02-07", "2026-02-09"]]}, "marketdata_yields": {"metadata": {"SECID": {"type": "string", "bytes": 36, "max_size": 0}, "BOARDID": {"type": "string", "bytes": 12, "max_size": 0}, "PRICE": {"type": "double"}, "YIELDDATE": {"type": "date", "bytes": 10, "max_size": 0}, "ZCYCMOMENT": {"type": "datetime", "bytes": 19, "max_size": 0}, "YIELDDATETYPE": {"type": "string", "bytes": 21, "max_size": 0}, "EFFECTIVEYIELD": {"type": "double"}, "DURATION": {"type": "int32"}, "ZSPREADBP": {"type": "int32"}, "GSPREADBP": {"type": "int32"}, "WAPRICE": {"type": "double"}, "EFFECTIVEYIELDWAPRICE": {"type": "double"}, "DURATIONWAPRICE": {"type": "int32"}, "IR": {"type": "double"}, "ICPI": {"type": "double"}, "BEI": {"type": "double"}, "CBR": {"type": "double"}, "YIELDTOOFFER": {"type": "double"}, "YIELDLASTCOUPON": {"type": "double"}, "TRADEMOMENT": {"type": "datetime", "bytes": 19, "max_size": 0}, "SEQNUM": {"type": "int64"}, "SYSTIME": {"type": "datetime", "bytes": 19, "max_size": 0}}, "columns": ["SECID", "BOARDID", "PRICE", "YIELDDATE", "ZCYCMOMENT", "YIELDDATETYPE", "EFFECTIVEYIELD", "DURATION", "ZSPREADBP", "GSPREADBP", "WAPRICE", "EFFECTIVEYIELDWAPRICE", "DURATIONWAPRICE", "IR", "ICPI", "BEI", "CBR", "YIELDTOOFFER", "YIELDLASTCOUPON", "TRADEMOMENT", "SEQNUM", "SYSTIME"], "data": []}}</t>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TQCB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T+: Bonds - order-driven</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EQOB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Main market: A1 bonds - order-driven</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LIQB</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Order-driven CCP deals - order-driven</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>mamc</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RPEY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>REPO (CNY) - negotiated</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RPEU</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>REPO (USD) - negotiated</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2019-04-22</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RPUO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>REPO: bonds (USD) - negotiated</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-05-31</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RPEO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REPO (EUR) - negotiated</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2019-04-22</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EQRP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REPO with CCP 1 day - order-driven</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EQRD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>REPO with CCP 1 day (USD) - order-driven</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EQRE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>REPO with CCP 1 day (EUR) - order-driven</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>93</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EQRY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>REPO CCP 1 day (CNY) - order-driven</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>152</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2019-03-07</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EQWP</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REPO with CCP 7 day - order-driven</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>76</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EQWD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>REPO with CCP 7 day (USD) - order-driven</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>78</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EQWE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REPO with CCP 7 day (EUR) - order-driven</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>79</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EQWY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REPO with CCP 7 day (CNY) - order-driven</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LIQR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REPO CCP Settle's Deals - order-driven</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>148</v>
+      </c>
+      <c r="E17" t="n">
+        <v>27</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2019-03-04</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PSRP</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>REPO with CCP - negotiated</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>65</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2019-10-02</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PSRD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>REPO with CCP (USD) - negotiated</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>91</v>
+      </c>
+      <c r="E19" t="n">
+        <v>27</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PSRE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>REPO with CCP (EUR) - negotiated</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PSRY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>REPO CCP (CNY) - negotiated</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>153</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2019-03-07</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PSRK</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>REPO with CCP (KZT) - negotiated</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1422</v>
+      </c>
+      <c r="E22" t="n">
+        <v>27</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>KZT</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PSRB</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REPO with CCP (BYN) - negotiated</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1424</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ccp</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>BYN</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PSOB</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Neg. deals: bonds - negotiated</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>284</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PSAU</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Primary distribution auction - negotiated</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>107</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OTCB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Neg. deals: Anonymous - negotiated</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2018-10-29</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PTOB</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Neg. deals CCP: bonds - negotiated</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>282</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2019-03-11</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>OCBR</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OCBU</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP (USD)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>OCBY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP (CNY)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OCAR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP ndm</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1263</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OCAY</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP ndm (CNY)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1265</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OCAU</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OTC: Bonds with CCP ndm (USD)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1267</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ndm</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>otc</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RPMO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>REPO-M - negotiated</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>201</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RPEK</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>REPO-M (KZT) - negotiated</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1426</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>KZT</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RPEB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>REPO-M (BYN) - negotiated</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>repo</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>BYN</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CIQR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>REPO CCP settle's Deals : Non-residents - order-driven</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1080</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>nonresccp</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CIQB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Neg. CCP settle's Deals: Non-residents - order-driven</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1082</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>mamc</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CTOB</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Neg. deals CCP Non-residents: Bonds - negotiated</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nonresndm</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CPMO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REPO-M: Non-residents - negotiated</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>nonresrepo</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CPEU</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>REPO-M: Non-residents (USD) - negotiated</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>nonresrepo</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CPEO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>REPO-M: Non-residents (EUR) - negotiated</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>nonresrepo</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CPEY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>REPO-M: Non-residents (CNY) - negotiated</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nonresrepo</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>OBBO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>OffBoard bonds</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>141</v>
+      </c>
+      <c r="E44" t="n">
+        <v>39</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>offboard</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2018-11-08</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2020-02-10</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2018-11-08</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QBND</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Quotes</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1279</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>bonds</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>quotes</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -528,247 +4904,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>data_version</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>seqnum</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Endpoint</t>
+          <t>trade_date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>trade_session_date</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total Script Duration</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2.52 seconds</t>
-        </is>
+      <c r="A2" t="n">
+        <v>8716</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20260207064330</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Response Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.440 seconds</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>security_search</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Data Size</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1,351 bytes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>security_search</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Status Code</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>security_search</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Response Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.035 seconds</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>security_info</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Data Size</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>13,620 bytes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>security_info</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Status Code</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>200</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>security_info</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Response Time</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.042 seconds</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>bond_market_data</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Data Size</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8,383 bytes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>bond_market_data</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Status Code</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>200</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>bond_market_data</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+          <t>2026-02-09</t>
         </is>
       </c>
     </row>
@@ -783,69 +4969,306 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Endpoint</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Response Time (s)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data Size (bytes)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>security_search</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Security Search</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.473</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1289</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>security_info</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Security Info</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>11597</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bond_market_data</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bond Market Data</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>8383</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>additional_info</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Additional Bond Info</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>404</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>HTTP 404</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ISIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Collection Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Total Endpoints Called</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Successful Endpoints</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Failed Endpoints</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Success Rate</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total Script Time (s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Average Response Time (s)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Data Received (KB)</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Output Files</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-02-07 16:16:12</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.172</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.147</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20.8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RU000A0ZZ885.xlsx + 7 response files</t>
         </is>
       </c>
     </row>

--- a/RU000A0ZZ885.xlsx
+++ b/RU000A0ZZ885.xlsx
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.412</t>
+          <t>0.421</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-07 16:32:59</t>
+          <t>2026-02-10 13:14:19</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.163</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
